--- a/Runfiles/Pricing/fixedlegs.xlsx
+++ b/Runfiles/Pricing/fixedlegs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JQ228YH\Documents\CVA Tool Python\CVA-Tool\Runfiles\Pricing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E68186C3-083D-4A65-B8DE-43D0BD905DB1}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A87A563-D8A8-4DCA-AAF4-724036B47FAD}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-6465" windowWidth="29040" windowHeight="15840" xr2:uid="{52CF6CF3-B954-4931-B2B0-A068B0EE93D2}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{52CF6CF3-B954-4931-B2B0-A068B0EE93D2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -68,7 +68,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="67">
   <si>
     <t>Dates</t>
   </si>
@@ -266,6 +266,9 @@
   </si>
   <si>
     <t>First Fixed Leg Python</t>
+  </si>
+  <si>
+    <t>testamortizing</t>
   </si>
 </sst>
 </file>
@@ -890,8 +893,8 @@
       <c r="H4" s="10">
         <v>3.0300000000000001E-2</v>
       </c>
-      <c r="I4" s="11">
-        <v>500000000</v>
+      <c r="I4" s="11" t="s">
+        <v>66</v>
       </c>
       <c r="J4" s="6" t="s">
         <v>64</v>
